--- a/TestData_K/NETS_NYPS_68Bus.xlsx
+++ b/TestData_K/NETS_NYPS_68Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData_K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657BA98-E468-444D-9C12-0C128E801174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190ADF0A-178F-4324-AB68-786F08FDB2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4137,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
